--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport_SparePart.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport_SparePart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6037E0-EEBA-4626-81AC-C3B3610BFDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="28452" windowHeight="12252"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +25,6 @@
     <t xml:space="preserve">Group A : , Group B : , Group C : </t>
   </si>
   <si>
-    <t xml:space="preserve">SUMMARY QUATATION OF SPARE PART </t>
-  </si>
-  <si>
     <t>QUATATION NO.</t>
   </si>
   <si>
@@ -146,29 +149,32 @@
   </si>
   <si>
     <t>** ซ005  - SLAB (สำนักงานใหญ่ F1, F2),  ซ018 - SLAB1 (ระยอง),   ซ023 - SLAB2 (F3).  ซ026 - SAB (Rojana)**</t>
+  </si>
+  <si>
+    <t>Summary Quotation SparePart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmm\ yy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="[$-1010409]d\ mmm\ yy;@"/>
+    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -261,7 +267,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -512,7 +518,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -531,7 +537,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,16 +549,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -616,13 +622,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,7 +643,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,16 +652,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,22 +670,85 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,79 +778,16 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,7 +811,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -847,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,9 +886,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,6 +938,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1090,46 +1130,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1161,19 +1201,19 @@
       <c r="AK1" s="16"/>
       <c r="AL1" s="17"/>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="29"/>
       <c r="L2" s="27"/>
       <c r="M2" s="20"/>
@@ -1203,7 +1243,7 @@
       <c r="AK2" s="16"/>
       <c r="AL2" s="17"/>
     </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="28"/>
       <c r="C3" s="30"/>
@@ -1243,7 +1283,7 @@
       <c r="AK3" s="16"/>
       <c r="AL3" s="17"/>
     </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
@@ -1285,172 +1325,182 @@
       <c r="AK4" s="16"/>
       <c r="AL4" s="17"/>
     </row>
-    <row r="5" spans="1:38" s="23" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="82" t="s">
+    <row r="5" spans="1:38" s="23" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87" t="s">
+      <c r="G5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="H5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="I5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="J5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="K5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="L5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="M5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="N5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="O5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="P5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="Q5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="R5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="S5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="T5" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="59" t="s">
+      <c r="U5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="61" t="s">
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="64" t="s">
+      <c r="Z5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="72" t="s">
+      <c r="AD5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AE5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AF5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="39" t="s">
+      <c r="AG5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="74" t="s">
+      <c r="AH5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AH5" s="53" t="s">
+      <c r="AI5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AI5" s="53" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>28</v>
-      </c>
-      <c r="AJ5" s="53" t="s">
-        <v>29</v>
       </c>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:38" s="24" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:38" s="24" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="64"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="42" t="s">
+      <c r="T6" s="81"/>
+      <c r="U6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="43" t="s">
+      <c r="W6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="X6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="45" t="s">
+      <c r="AA6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AB6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="73"/>
+      <c r="AC6" s="56"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AF6" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
       <c r="AK6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="AC5:AC6"/>
@@ -1467,16 +1517,6 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AA5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport_SparePart.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport_SparePart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6037E0-EEBA-4626-81AC-C3B3610BFDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD274C-188A-48EB-A00A-EDA44A4DC94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,35 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">Group A : , Group B : , Group C : </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>QUATATION NO.</t>
   </si>
   <si>
-    <t>ISSUED DATE</t>
-  </si>
-  <si>
-    <t>Customer Group</t>
-  </si>
-  <si>
     <t>CUSTOMER NAME</t>
   </si>
   <si>
-    <t>สถานที่เปิดบิล</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>สถานที่ตั้งเครื่อง 1</t>
-  </si>
-  <si>
-    <t>สถานที่ตั้งเครื่อง 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model </t>
   </si>
   <si>
@@ -61,54 +43,18 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>PART /</t>
-  </si>
-  <si>
     <t>Detail of Part</t>
   </si>
   <si>
     <t>Discount</t>
   </si>
   <si>
-    <t xml:space="preserve">AMOUNT </t>
-  </si>
-  <si>
     <t>CONTACT</t>
   </si>
   <si>
-    <t>DETAIL</t>
-  </si>
-  <si>
-    <t>No. P/O</t>
-  </si>
-  <si>
-    <t>SCHEDULE</t>
-  </si>
-  <si>
-    <t>Inv. No.</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDER </t>
-  </si>
-  <si>
     <t>REMARK</t>
   </si>
   <si>
-    <t>REF Return No</t>
-  </si>
-  <si>
-    <t>Return Detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> จำนวนเงิน Return</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -118,12 +64,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>S-C</t>
-  </si>
-  <si>
-    <t>QUOTATION</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -133,37 +73,47 @@
     <t>year</t>
   </si>
   <si>
-    <t>P/O</t>
-  </si>
-  <si>
-    <t>ใบสั่งขาย</t>
-  </si>
-  <si>
-    <t>กำหนดส่ง</t>
-  </si>
-  <si>
-    <t>No report</t>
-  </si>
-  <si>
-    <t>(HI-COM)</t>
-  </si>
-  <si>
     <t>** ซ005  - SLAB (สำนักงานใหญ่ F1, F2),  ซ018 - SLAB1 (ระยอง),   ซ023 - SLAB2 (F3).  ซ026 - SAB (Rojana)**</t>
   </si>
   <si>
     <t>Summary Quotation SparePart</t>
+  </si>
+  <si>
+    <t>CREATE DATE</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Quotation Type</t>
+  </si>
+  <si>
+    <t>AMOUNT  QUOTATION</t>
+  </si>
+  <si>
+    <t>QU STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE DATE</t>
+  </si>
+  <si>
+    <t>P/O No.</t>
+  </si>
+  <si>
+    <t>P/O Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="[$-1010409]d\ mmm\ yy;@"/>
-    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,11 +142,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
@@ -305,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -390,16 +335,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -408,43 +364,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -461,47 +380,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -515,12 +397,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,9 +437,6 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,18 +446,6 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -573,195 +455,99 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,16 +558,40 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,392 +941,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="8"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="17"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="8"/>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="4"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="17"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="8"/>
+    <row r="3" spans="1:27" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="4"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="18"/>
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="17"/>
+      <c r="C5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" s="23" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="67" t="s">
+    <row r="6" spans="1:27" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="U6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="V6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF5" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG5" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH5" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI5" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ5" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK5" s="25"/>
-    </row>
-    <row r="6" spans="1:38" s="24" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="81"/>
-      <c r="U6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="25"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="23">
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
